--- a/functionalities-comparison.xlsx
+++ b/functionalities-comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satyam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\independent-study\AWS-Lambda\09-20\serverless\new-repo\Serverless-Technologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF17F84-C6B9-457E-9117-56611FB00D69}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68.109375" defaultRowHeight="14.4"/>
@@ -624,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -640,14 +640,14 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="273.60000000000002">
@@ -658,13 +658,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -675,13 +675,13 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -691,14 +691,14 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8">
@@ -708,11 +708,11 @@
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -722,14 +722,14 @@
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -750,20 +750,20 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -774,11 +774,11 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
